--- a/data/standerd_drug_names.xlsx
+++ b/data/standerd_drug_names.xlsx
@@ -37,17 +37,6 @@
     <t>pancreatitis,L-asparaginase is minimally marrow suppressive; it is toxic to the liver
 and pancreas. Hypersensitivity and anaphylactic shock to the protein may develop.
 Hemorrhaging may occur due to the inhibition of clotting factor synthesis</t>
-  </si>
-  <si>
-    <t>异环磷酰胺</t>
-  </si>
-  <si>
-    <t>ifosfamide</t>
-  </si>
-  <si>
-    <t>Myelosuppression, SIADH,
-Fanconi syndrome
-(ifosfamide)</t>
   </si>
   <si>
     <t>依托泊苷</t>
@@ -318,6 +307,9 @@
     <t>多柔比星</t>
   </si>
   <si>
+    <t>Doxorubicin</t>
+  </si>
+  <si>
     <t>Dilated cardiomyopathy
 (often irreversible; prevent
 with dexrazoxane),
@@ -501,7 +493,7 @@
     </r>
   </si>
   <si>
-    <t>(optional)培门冬酶（PEG-ASP）</t>
+    <t>培门冬酶</t>
   </si>
   <si>
     <t>Pegaspargase（PEG-ASP）</t>
@@ -534,10 +526,7 @@
     <t>G-CSF</t>
   </si>
   <si>
-    <t>Total lymphoid irradiation（TBI）</t>
-  </si>
-  <si>
-    <t>Total lymphoid irradiation</t>
+    <t>TBI</t>
   </si>
   <si>
     <t>塞替派</t>
@@ -608,6 +597,17 @@
       </rPr>
       <t>(651mg，口服)</t>
     </r>
+  </si>
+  <si>
+    <t>异环磷酰胺</t>
+  </si>
+  <si>
+    <t>ifosfamide</t>
+  </si>
+  <si>
+    <t>Myelosuppression, SIADH,
+Fanconi syndrome
+(ifosfamide)</t>
   </si>
 </sst>
 </file>
@@ -1269,13 +1269,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1612,10 +1612,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1651,482 +1651,471 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="42.75" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="4" ht="15" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" ht="128.25" spans="1:4">
       <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="228" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" ht="90" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="240" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="60" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" ht="60" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="71.25" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" ht="228" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>25</v>
+        <v>37</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" ht="71.25" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" ht="45" spans="1:4">
       <c r="A18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="15" spans="1:3">
       <c r="A20" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" ht="99.75" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" ht="135" spans="1:4">
       <c r="A23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="24" ht="90" spans="1:4">
       <c r="A24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="25" ht="90" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" ht="57" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="30" ht="57" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>33</v>
+        <v>78</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="135" spans="1:4">
       <c r="A31" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="B31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="D32" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" ht="85.5" spans="1:4">
       <c r="A33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="90" spans="1:4">
       <c r="A34" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" ht="60" spans="1:3">
       <c r="A35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B35" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="36" ht="165" spans="1:3">
       <c r="A36" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B36" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="37" ht="15" spans="1:3">
       <c r="A37" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="B37" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="38" ht="85.5" spans="1:3">
       <c r="A38" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="B38" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="39" ht="85.5" spans="1:3">
       <c r="A39" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="5" t="s">
         <v>104</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:2">
       <c r="A40" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" ht="57" spans="1:3">
       <c r="A41" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" ht="125.25" spans="1:3">
       <c r="A45" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="46" ht="165" spans="1:3">
       <c r="A46" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>6</v>
@@ -2134,97 +2123,108 @@
     </row>
     <row r="47" ht="185.25" spans="1:3">
       <c r="A47" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="48" ht="57" spans="1:3">
       <c r="A48" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>75</v>
+        <v>125</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" s="2" customFormat="1" spans="1:2">
       <c r="A51" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B52" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:3">
       <c r="A53" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" ht="45" spans="1:4">
       <c r="A54" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" ht="45" spans="1:4">
       <c r="A55" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" ht="42.75" spans="1:3">
+      <c r="A56" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56" t="s">
         <v>138</v>
       </c>
-      <c r="B55" t="s">
-        <v>47</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D55" s="3" t="s">
+      <c r="C56" s="7" t="s">
         <v>139</v>
       </c>
     </row>

--- a/data/standerd_drug_names.xlsx
+++ b/data/standerd_drug_names.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19515" windowHeight="8040"/>
+    <workbookView windowWidth="25423" windowHeight="13247"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="144">
   <si>
     <t>药名</t>
   </si>
@@ -609,18 +609,30 @@
 Fanconi syndrome
 (ifosfamide)</t>
   </si>
+  <si>
+    <t>吉西他滨</t>
+  </si>
+  <si>
+    <t>Gemcitabine</t>
+  </si>
+  <si>
+    <t>奥沙利铂</t>
+  </si>
+  <si>
+    <t>Oxaliplatin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,8 +653,92 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,8 +752,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -665,7 +768,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,30 +798,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -710,88 +805,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Nimbus Roman No9 L"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -818,49 +838,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,127 +994,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,8 +1023,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1030,26 +1053,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1060,6 +1074,15 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1080,25 +1103,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1108,148 +1122,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1281,9 +1295,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1291,6 +1302,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1612,18 +1626,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="28.75" style="3" customWidth="1"/>
+    <col min="1" max="1" width="28.7522935779816" style="3" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="42.375" customWidth="1"/>
+    <col min="3" max="3" width="22.3761467889908" customWidth="1"/>
+    <col min="4" max="4" width="42.3761467889908" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1640,7 +1654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="165" spans="1:3">
+    <row r="2" ht="201.1" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1651,7 +1665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:3">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1686,7 +1700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="128.25" spans="1:4">
+    <row r="8" ht="144" spans="1:4">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1700,7 +1714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="228" spans="1:4">
+    <row r="9" customFormat="1" ht="230.4" spans="1:4">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1712,7 +1726,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" ht="90" spans="1:3">
+    <row r="10" ht="93.85" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1723,7 +1737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" ht="240" spans="1:3">
+    <row r="11" ht="254.75" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1734,7 +1748,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="60" spans="1:3">
+    <row r="12" ht="67.05" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -1745,7 +1759,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" ht="60" spans="1:3">
+    <row r="13" ht="67.05" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
@@ -1756,7 +1770,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" ht="71.25" spans="1:3">
+    <row r="14" ht="72" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -1767,7 +1781,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" ht="228" spans="1:3">
+    <row r="15" ht="230.4" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
@@ -1786,7 +1800,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" ht="71.25" spans="1:4">
+    <row r="17" ht="86.4" spans="1:4">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
@@ -1798,7 +1812,7 @@
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" ht="45" spans="1:4">
+    <row r="18" ht="40.2" spans="1:4">
       <c r="A18" s="3" t="s">
         <v>43</v>
       </c>
@@ -1820,8 +1834,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="15" spans="1:3">
-      <c r="A20" s="9" t="s">
+    <row r="20" s="1" customFormat="1" spans="1:3">
+      <c r="A20" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1839,7 +1853,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" ht="99.75" spans="1:4">
+    <row r="22" ht="115.2" spans="1:4">
       <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
@@ -1851,7 +1865,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" ht="135" spans="1:4">
+    <row r="23" ht="160.9" spans="1:4">
       <c r="A23" s="3" t="s">
         <v>57</v>
       </c>
@@ -1865,7 +1879,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" ht="90" spans="1:4">
+    <row r="24" ht="86.4" spans="1:4">
       <c r="A24" s="3" t="s">
         <v>61</v>
       </c>
@@ -1879,7 +1893,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" ht="90" spans="1:4">
+    <row r="25" ht="86.4" spans="1:4">
       <c r="A25" s="3" t="s">
         <v>65</v>
       </c>
@@ -1901,18 +1915,18 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="1:3">
+    <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" ht="57" spans="1:3">
+    <row r="28" ht="72" spans="1:3">
       <c r="A28" s="3" t="s">
         <v>71</v>
       </c>
@@ -1934,7 +1948,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" ht="57" spans="1:3">
+    <row r="30" ht="57.6" spans="1:3">
       <c r="A30" s="3" t="s">
         <v>77</v>
       </c>
@@ -1945,7 +1959,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" ht="135" spans="1:4">
+    <row r="31" ht="160.9" spans="1:4">
       <c r="A31" s="3" t="s">
         <v>79</v>
       </c>
@@ -1971,7 +1985,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" ht="85.5" spans="1:4">
+    <row r="33" ht="86.4" spans="1:4">
       <c r="A33" s="3" t="s">
         <v>85</v>
       </c>
@@ -1983,11 +1997,11 @@
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="90" spans="1:4">
-      <c r="A34" s="9" t="s">
+    <row r="34" s="1" customFormat="1" ht="93.85" spans="1:4">
+      <c r="A34" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -1995,7 +2009,7 @@
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" ht="60" spans="1:3">
+    <row r="35" ht="67.05" spans="1:3">
       <c r="A35" s="3" t="s">
         <v>91</v>
       </c>
@@ -2006,7 +2020,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" ht="165" spans="1:3">
+    <row r="36" ht="174.3" spans="1:3">
       <c r="A36" s="3" t="s">
         <v>94</v>
       </c>
@@ -2017,18 +2031,18 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="1:3">
+    <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B37" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="38" ht="85.5" spans="1:3">
+    <row r="38" ht="100.8" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>100</v>
       </c>
@@ -2039,7 +2053,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" ht="85.5" spans="1:3">
+    <row r="39" ht="100.8" spans="1:3">
       <c r="A39" s="3" t="s">
         <v>103</v>
       </c>
@@ -2051,14 +2065,14 @@
       </c>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:2">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>105</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="41" ht="57" spans="1:3">
+    <row r="41" ht="72" spans="1:3">
       <c r="A41" s="3" t="s">
         <v>107</v>
       </c>
@@ -2099,7 +2113,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45" ht="125.25" spans="1:3">
+    <row r="45" ht="128.1" spans="1:3">
       <c r="A45" s="3" t="s">
         <v>116</v>
       </c>
@@ -2110,7 +2124,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" ht="165" spans="1:3">
+    <row r="46" ht="201.1" spans="1:3">
       <c r="A46" s="3" t="s">
         <v>119</v>
       </c>
@@ -2121,7 +2135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" ht="185.25" spans="1:3">
+    <row r="47" ht="201.6" spans="1:3">
       <c r="A47" s="3" t="s">
         <v>121</v>
       </c>
@@ -2132,7 +2146,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" ht="57" spans="1:3">
+    <row r="48" ht="72" spans="1:3">
       <c r="A48" s="3" t="s">
         <v>124</v>
       </c>
@@ -2160,10 +2174,10 @@
       </c>
     </row>
     <row r="51" s="2" customFormat="1" spans="1:2">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="10" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2178,19 +2192,19 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" ht="15" spans="1:3">
-      <c r="A53" s="12" t="s">
+    <row r="53" spans="1:3">
+      <c r="A53" s="11" t="s">
         <v>133</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="54" ht="45" spans="1:4">
-      <c r="A54" s="12" t="s">
+    <row r="54" ht="40.2" spans="1:4">
+      <c r="A54" s="11" t="s">
         <v>134</v>
       </c>
       <c r="B54" t="s">
@@ -2203,8 +2217,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" ht="45" spans="1:4">
-      <c r="A55" s="12" t="s">
+    <row r="55" ht="40.2" spans="1:4">
+      <c r="A55" s="11" t="s">
         <v>135</v>
       </c>
       <c r="B55" t="s">
@@ -2217,7 +2231,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" ht="42.75" spans="1:3">
+    <row r="56" ht="57.6" spans="1:3">
       <c r="A56" s="3" t="s">
         <v>137</v>
       </c>
@@ -2228,7 +2242,26 @@
         <v>139</v>
       </c>
     </row>
+    <row r="57" ht="30.25" spans="1:2">
+      <c r="A57" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B58" r:id="rId1" display="Oxaliplatin" tooltip="https://baike.baidu.com/item/Oxaliplatin/8782901?fromModule=lemma_inlink"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
